--- a/StructureDefinition-Prevision.xlsx
+++ b/StructureDefinition-Prevision.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T15:47:06-04:00</t>
+    <t>2023-06-30T18:27:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Prevision.xlsx
+++ b/StructureDefinition-Prevision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="398">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T18:27:12-04:00</t>
+    <t>2023-09-13T17:11:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -142,6 +142,10 @@
     <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -763,41 +767,45 @@
     <t>Coverage.subscriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
 </t>
   </si>
   <si>
+    <t>Subscriber to the policy</t>
+  </si>
+  <si>
+    <t>The party who has signed-up for or 'owns' the contractual relationship to the policy or to whom the benefit of the policy for services rendered to them or their family is due.</t>
+  </si>
+  <si>
+    <t>May be self or a parent in the case of dependants. A subscriber is only required on certain types of policies not all policies and that it is appropriate to have just a policyholder and a beneficiary when not other party can join that policy instance.</t>
+  </si>
+  <si>
+    <t>This is the party who is entitled to the benfits under the policy.</t>
+  </si>
+  <si>
+    <t>Coverage.subscriberId</t>
+  </si>
+  <si>
+    <t>ID assigned to the subscriber</t>
+  </si>
+  <si>
+    <t>The insurer assigned ID for the Subscriber.</t>
+  </si>
+  <si>
+    <t>The insurer requires this identifier on correspondance and claims (digital and otherwise).</t>
+  </si>
+  <si>
+    <t>Coverage.beneficiary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/PacienteHLF)
+</t>
+  </si>
+  <si>
     <t>Referencia al recurso paciente asociado a la previsión</t>
   </si>
   <si>
     <t>Referencia a Recurso paciente</t>
-  </si>
-  <si>
-    <t>May be self or a parent in the case of dependants. A subscriber is only required on certain types of policies not all policies and that it is appropriate to have just a policyholder and a beneficiary when not other party can join that policy instance.</t>
-  </si>
-  <si>
-    <t>This is the party who is entitled to the benfits under the policy.</t>
-  </si>
-  <si>
-    <t>Coverage.subscriberId</t>
-  </si>
-  <si>
-    <t>ID assigned to the subscriber</t>
-  </si>
-  <si>
-    <t>The insurer assigned ID for the Subscriber.</t>
-  </si>
-  <si>
-    <t>The insurer requires this identifier on correspondance and claims (digital and otherwise).</t>
-  </si>
-  <si>
-    <t>Coverage.beneficiary</t>
-  </si>
-  <si>
-    <t>Plan beneficiary</t>
-  </si>
-  <si>
-    <t>The party who benefits from the insurance coverage; the patient when products and/or services are provided.</t>
   </si>
   <si>
     <t>This is the party who receives treatment for which the costs are reimbursed under the coverage.</t>
@@ -1558,15 +1566,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.0625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.0625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.60546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.37890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1574,30 +1582,30 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.73828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.97265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.58984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="83.67578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.02734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.2890625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="41.15234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="18.9375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="16.77734375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="45.8671875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="20.453125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="15.00390625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="49.56640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="18.48828125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="16.35546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="45.9453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="20.51953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="15.8671875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="50.9453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1699,16 +1707,16 @@
         <v>34</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>34</v>
@@ -1722,10 +1730,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1736,7 +1744,7 @@
         <v>35</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>34</v>
@@ -1745,19 +1753,19 @@
         <v>34</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1807,13 +1815,13 @@
         <v>34</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>34</v>
@@ -1842,10 +1850,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1856,7 +1864,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>34</v>
@@ -1865,16 +1873,16 @@
         <v>34</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1925,19 +1933,19 @@
         <v>34</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>34</v>
@@ -1960,10 +1968,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1974,28 +1982,28 @@
         <v>35</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>34</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2045,19 +2053,19 @@
         <v>34</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>34</v>
@@ -2080,10 +2088,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2094,7 +2102,7 @@
         <v>35</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>34</v>
@@ -2106,16 +2114,16 @@
         <v>34</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2141,13 +2149,13 @@
         <v>34</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>34</v>
@@ -2165,19 +2173,19 @@
         <v>34</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>34</v>
@@ -2200,21 +2208,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>34</v>
@@ -2226,16 +2234,16 @@
         <v>34</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2285,19 +2293,19 @@
         <v>34</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>34</v>
@@ -2306,7 +2314,7 @@
         <v>34</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>34</v>
@@ -2320,14 +2328,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2346,16 +2354,16 @@
         <v>34</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2405,7 +2413,7 @@
         <v>34</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>35</v>
@@ -2414,7 +2422,7 @@
         <v>36</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>34</v>
@@ -2426,7 +2434,7 @@
         <v>34</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>34</v>
@@ -2440,14 +2448,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2466,16 +2474,16 @@
         <v>34</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2525,7 +2533,7 @@
         <v>34</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>35</v>
@@ -2537,7 +2545,7 @@
         <v>34</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>34</v>
@@ -2546,7 +2554,7 @@
         <v>34</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>34</v>
@@ -2560,14 +2568,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2580,25 +2588,25 @@
         <v>34</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>34</v>
@@ -2647,7 +2655,7 @@
         <v>34</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>35</v>
@@ -2659,7 +2667,7 @@
         <v>34</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>34</v>
@@ -2668,7 +2676,7 @@
         <v>34</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>34</v>
@@ -2682,10 +2690,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2705,22 +2713,22 @@
         <v>34</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>34</v>
@@ -2769,7 +2777,7 @@
         <v>34</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>35</v>
@@ -2781,22 +2789,22 @@
         <v>34</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>34</v>
@@ -2804,10 +2812,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2815,34 +2823,34 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>34</v>
@@ -2852,7 +2860,7 @@
         <v>34</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>34</v>
@@ -2867,13 +2875,13 @@
         <v>34</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>34</v>
@@ -2891,28 +2899,28 @@
         <v>34</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>34</v>
@@ -2926,10 +2934,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2937,32 +2945,32 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>34</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>34</v>
@@ -2972,7 +2980,7 @@
         <v>34</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>34</v>
@@ -2987,13 +2995,13 @@
         <v>34</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>34</v>
@@ -3011,19 +3019,19 @@
         <v>34</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>34</v>
@@ -3046,10 +3054,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3072,13 +3080,13 @@
         <v>34</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3129,7 +3137,7 @@
         <v>34</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
@@ -3141,7 +3149,7 @@
         <v>34</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>34</v>
@@ -3164,10 +3172,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3178,7 +3186,7 @@
         <v>35</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>34</v>
@@ -3190,13 +3198,13 @@
         <v>34</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3247,16 +3255,16 @@
         <v>34</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>34</v>
@@ -3268,7 +3276,7 @@
         <v>34</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>34</v>
@@ -3282,14 +3290,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3308,16 +3316,16 @@
         <v>34</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3367,7 +3375,7 @@
         <v>34</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -3379,7 +3387,7 @@
         <v>34</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>34</v>
@@ -3388,7 +3396,7 @@
         <v>34</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>34</v>
@@ -3402,14 +3410,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3422,25 +3430,25 @@
         <v>34</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>34</v>
@@ -3489,7 +3497,7 @@
         <v>34</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -3501,7 +3509,7 @@
         <v>34</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>34</v>
@@ -3510,7 +3518,7 @@
         <v>34</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>34</v>
@@ -3524,10 +3532,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3535,10 +3543,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>34</v>
@@ -3547,16 +3555,16 @@
         <v>34</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3607,19 +3615,19 @@
         <v>34</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>34</v>
@@ -3642,10 +3650,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3656,7 +3664,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>34</v>
@@ -3665,16 +3673,16 @@
         <v>34</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3725,19 +3733,19 @@
         <v>34</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>34</v>
@@ -3760,10 +3768,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3771,32 +3779,32 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>34</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>34</v>
@@ -3821,11 +3829,11 @@
         <v>34</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>34</v>
@@ -3843,25 +3851,25 @@
         <v>34</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>34</v>
@@ -3873,15 +3881,15 @@
         <v>34</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3892,7 +3900,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>34</v>
@@ -3904,13 +3912,13 @@
         <v>34</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3961,16 +3969,16 @@
         <v>34</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>34</v>
@@ -3982,7 +3990,7 @@
         <v>34</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>34</v>
@@ -3996,14 +4004,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4022,16 +4030,16 @@
         <v>34</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4069,19 +4077,19 @@
         <v>34</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -4093,7 +4101,7 @@
         <v>34</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>34</v>
@@ -4102,7 +4110,7 @@
         <v>34</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>34</v>
@@ -4116,10 +4124,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4127,10 +4135,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>34</v>
@@ -4139,22 +4147,22 @@
         <v>34</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>34</v>
@@ -4203,7 +4211,7 @@
         <v>34</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -4215,7 +4223,7 @@
         <v>34</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>34</v>
@@ -4224,7 +4232,7 @@
         <v>34</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>34</v>
@@ -4233,15 +4241,15 @@
         <v>34</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4252,7 +4260,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>34</v>
@@ -4264,13 +4272,13 @@
         <v>34</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4321,16 +4329,16 @@
         <v>34</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>34</v>
@@ -4342,7 +4350,7 @@
         <v>34</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>34</v>
@@ -4356,14 +4364,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4382,16 +4390,16 @@
         <v>34</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4429,19 +4437,19 @@
         <v>34</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -4453,7 +4461,7 @@
         <v>34</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>34</v>
@@ -4462,7 +4470,7 @@
         <v>34</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>34</v>
@@ -4476,10 +4484,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4490,7 +4498,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>34</v>
@@ -4499,22 +4507,22 @@
         <v>34</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>34</v>
@@ -4563,19 +4571,19 @@
         <v>34</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>34</v>
@@ -4584,7 +4592,7 @@
         <v>34</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>34</v>
@@ -4593,15 +4601,15 @@
         <v>34</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4612,7 +4620,7 @@
         <v>35</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>34</v>
@@ -4621,19 +4629,19 @@
         <v>34</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4683,19 +4691,19 @@
         <v>34</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>34</v>
@@ -4704,7 +4712,7 @@
         <v>34</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>34</v>
@@ -4713,15 +4721,15 @@
         <v>34</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4729,10 +4737,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>34</v>
@@ -4741,20 +4749,20 @@
         <v>34</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>34</v>
@@ -4803,19 +4811,19 @@
         <v>34</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>34</v>
@@ -4824,7 +4832,7 @@
         <v>34</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>34</v>
@@ -4833,15 +4841,15 @@
         <v>34</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4849,10 +4857,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>34</v>
@@ -4861,20 +4869,20 @@
         <v>34</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>34</v>
@@ -4923,19 +4931,19 @@
         <v>34</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>34</v>
@@ -4944,7 +4952,7 @@
         <v>34</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>34</v>
@@ -4953,15 +4961,15 @@
         <v>34</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4972,7 +4980,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>34</v>
@@ -4981,22 +4989,22 @@
         <v>34</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>34</v>
@@ -5045,19 +5053,19 @@
         <v>34</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>34</v>
@@ -5066,7 +5074,7 @@
         <v>34</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>34</v>
@@ -5075,15 +5083,15 @@
         <v>34</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5094,7 +5102,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>34</v>
@@ -5103,22 +5111,22 @@
         <v>34</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>34</v>
@@ -5167,19 +5175,19 @@
         <v>34</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>34</v>
@@ -5188,7 +5196,7 @@
         <v>34</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>34</v>
@@ -5197,15 +5205,15 @@
         <v>34</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5216,7 +5224,7 @@
         <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>34</v>
@@ -5225,22 +5233,22 @@
         <v>34</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>34</v>
@@ -5289,45 +5297,45 @@
         <v>34</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5335,34 +5343,34 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>34</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>34</v>
@@ -5411,45 +5419,45 @@
         <v>34</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>237</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5469,20 +5477,20 @@
         <v>34</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>34</v>
@@ -5531,7 +5539,7 @@
         <v>34</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -5543,33 +5551,33 @@
         <v>34</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5577,32 +5585,32 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>34</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>34</v>
@@ -5651,45 +5659,45 @@
         <v>34</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5700,7 +5708,7 @@
         <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>34</v>
@@ -5709,22 +5717,22 @@
         <v>34</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>34</v>
@@ -5773,19 +5781,19 @@
         <v>34</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>34</v>
@@ -5797,21 +5805,21 @@
         <v>34</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5822,7 +5830,7 @@
         <v>35</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>34</v>
@@ -5834,19 +5842,19 @@
         <v>34</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>34</v>
@@ -5871,13 +5879,13 @@
         <v>34</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>34</v>
@@ -5895,19 +5903,19 @@
         <v>34</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>34</v>
@@ -5919,7 +5927,7 @@
         <v>34</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>34</v>
@@ -5930,10 +5938,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5944,7 +5952,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>34</v>
@@ -5953,20 +5961,20 @@
         <v>34</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>34</v>
@@ -6015,28 +6023,28 @@
         <v>34</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>34</v>
@@ -6045,15 +6053,15 @@
         <v>34</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6064,7 +6072,7 @@
         <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>34</v>
@@ -6073,22 +6081,22 @@
         <v>34</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>34</v>
@@ -6137,19 +6145,19 @@
         <v>34</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>34</v>
@@ -6172,10 +6180,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6198,19 +6206,19 @@
         <v>34</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>34</v>
@@ -6259,7 +6267,7 @@
         <v>34</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6271,7 +6279,7 @@
         <v>34</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>34</v>
@@ -6294,10 +6302,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6308,7 +6316,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>34</v>
@@ -6320,13 +6328,13 @@
         <v>34</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6377,16 +6385,16 @@
         <v>34</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>34</v>
@@ -6398,7 +6406,7 @@
         <v>34</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>34</v>
@@ -6412,14 +6420,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6438,16 +6446,16 @@
         <v>34</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6497,7 +6505,7 @@
         <v>34</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6509,7 +6517,7 @@
         <v>34</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>34</v>
@@ -6518,7 +6526,7 @@
         <v>34</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>34</v>
@@ -6532,14 +6540,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6552,25 +6560,25 @@
         <v>34</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>34</v>
@@ -6619,7 +6627,7 @@
         <v>34</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6631,7 +6639,7 @@
         <v>34</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>34</v>
@@ -6640,7 +6648,7 @@
         <v>34</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>34</v>
@@ -6654,10 +6662,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6665,10 +6673,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>34</v>
@@ -6677,20 +6685,20 @@
         <v>34</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>34</v>
@@ -6715,13 +6723,13 @@
         <v>34</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>34</v>
@@ -6739,19 +6747,19 @@
         <v>34</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>34</v>
@@ -6774,10 +6782,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6785,10 +6793,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>34</v>
@@ -6797,22 +6805,22 @@
         <v>34</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>34</v>
@@ -6861,19 +6869,19 @@
         <v>34</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>34</v>
@@ -6885,21 +6893,21 @@
         <v>34</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6910,7 +6918,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>34</v>
@@ -6919,20 +6927,20 @@
         <v>34</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>34</v>
@@ -6981,45 +6989,45 @@
         <v>34</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="AP45" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7030,7 +7038,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>34</v>
@@ -7039,20 +7047,20 @@
         <v>34</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>34</v>
@@ -7101,19 +7109,19 @@
         <v>34</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>34</v>
@@ -7136,10 +7144,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7150,7 +7158,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>34</v>
@@ -7159,20 +7167,20 @@
         <v>34</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>34</v>
@@ -7221,19 +7229,19 @@
         <v>34</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>34</v>
@@ -7245,7 +7253,7 @@
         <v>34</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>34</v>
@@ -7256,14 +7264,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7282,19 +7290,19 @@
         <v>34</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>34</v>
@@ -7343,7 +7351,7 @@
         <v>34</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -7355,7 +7363,7 @@
         <v>34</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>34</v>
@@ -7378,10 +7386,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7392,7 +7400,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>34</v>
@@ -7404,13 +7412,13 @@
         <v>34</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7461,16 +7469,16 @@
         <v>34</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>34</v>
@@ -7482,7 +7490,7 @@
         <v>34</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>34</v>
@@ -7496,14 +7504,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7522,16 +7530,16 @@
         <v>34</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7581,7 +7589,7 @@
         <v>34</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7593,7 +7601,7 @@
         <v>34</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>34</v>
@@ -7602,7 +7610,7 @@
         <v>34</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>34</v>
@@ -7616,14 +7624,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7636,25 +7644,25 @@
         <v>34</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>34</v>
@@ -7703,7 +7711,7 @@
         <v>34</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -7715,7 +7723,7 @@
         <v>34</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>34</v>
@@ -7724,7 +7732,7 @@
         <v>34</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>34</v>
@@ -7738,10 +7746,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7752,7 +7760,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>34</v>
@@ -7761,22 +7769,22 @@
         <v>34</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>34</v>
@@ -7801,13 +7809,13 @@
         <v>34</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>34</v>
@@ -7825,19 +7833,19 @@
         <v>34</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>34</v>
@@ -7860,10 +7868,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7874,7 +7882,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>34</v>
@@ -7886,19 +7894,19 @@
         <v>34</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>34</v>
@@ -7923,11 +7931,11 @@
         <v>34</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>34</v>
@@ -7945,19 +7953,19 @@
         <v>34</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>34</v>
@@ -7980,10 +7988,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7994,7 +8002,7 @@
         <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>34</v>
@@ -8006,17 +8014,17 @@
         <v>34</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>34</v>
@@ -8041,11 +8049,11 @@
         <v>34</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>34</v>
@@ -8063,19 +8071,19 @@
         <v>34</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>34</v>
@@ -8098,10 +8106,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8112,7 +8120,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>34</v>
@@ -8124,17 +8132,17 @@
         <v>34</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>34</v>
@@ -8159,11 +8167,11 @@
         <v>34</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>34</v>
@@ -8181,19 +8189,19 @@
         <v>34</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>34</v>
@@ -8216,10 +8224,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8230,7 +8238,7 @@
         <v>35</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>34</v>
@@ -8242,17 +8250,17 @@
         <v>34</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>34</v>
@@ -8277,11 +8285,11 @@
         <v>34</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>34</v>
@@ -8299,19 +8307,19 @@
         <v>34</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>34</v>
@@ -8334,10 +8342,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8348,7 +8356,7 @@
         <v>35</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>34</v>
@@ -8357,22 +8365,22 @@
         <v>34</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>34</v>
@@ -8421,19 +8429,19 @@
         <v>34</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>34</v>
@@ -8445,21 +8453,21 @@
         <v>34</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8482,17 +8490,17 @@
         <v>34</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>34</v>
@@ -8541,7 +8549,7 @@
         <v>34</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -8553,7 +8561,7 @@
         <v>34</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>34</v>
@@ -8576,10 +8584,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8590,7 +8598,7 @@
         <v>35</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>34</v>
@@ -8602,13 +8610,13 @@
         <v>34</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8659,16 +8667,16 @@
         <v>34</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>34</v>
@@ -8680,7 +8688,7 @@
         <v>34</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>34</v>
@@ -8694,14 +8702,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8720,16 +8728,16 @@
         <v>34</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8779,7 +8787,7 @@
         <v>34</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -8791,7 +8799,7 @@
         <v>34</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>34</v>
@@ -8800,7 +8808,7 @@
         <v>34</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>34</v>
@@ -8814,14 +8822,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8834,25 +8842,25 @@
         <v>34</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>34</v>
@@ -8901,7 +8909,7 @@
         <v>34</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -8913,7 +8921,7 @@
         <v>34</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>34</v>
@@ -8922,7 +8930,7 @@
         <v>34</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>34</v>
@@ -8936,10 +8944,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8947,10 +8955,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>34</v>
@@ -8959,20 +8967,20 @@
         <v>34</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>34</v>
@@ -8997,13 +9005,13 @@
         <v>34</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>34</v>
@@ -9021,19 +9029,19 @@
         <v>34</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>34</v>
@@ -9056,10 +9064,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9070,7 +9078,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>34</v>
@@ -9079,20 +9087,20 @@
         <v>34</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>34</v>
@@ -9141,19 +9149,19 @@
         <v>34</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>34</v>
@@ -9176,10 +9184,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9190,7 +9198,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>34</v>
@@ -9202,19 +9210,19 @@
         <v>34</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>34</v>
@@ -9263,19 +9271,19 @@
         <v>34</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>34</v>
@@ -9298,10 +9306,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9324,17 +9332,17 @@
         <v>34</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>34</v>
@@ -9383,7 +9391,7 @@
         <v>34</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>35</v>
@@ -9395,7 +9403,7 @@
         <v>34</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>34</v>
@@ -9404,24 +9412,24 @@
         <v>34</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9432,7 +9440,7 @@
         <v>35</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>34</v>
@@ -9444,17 +9452,17 @@
         <v>34</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>34</v>
@@ -9503,19 +9511,19 @@
         <v>34</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>34</v>
